--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -67,28 +67,25 @@
     <t>Voluntário aprovado</t>
   </si>
   <si>
+    <t>x(1)</t>
+  </si>
+  <si>
     <t>Aplicativo aprova cadastro</t>
   </si>
   <si>
     <t>x(2)</t>
   </si>
   <si>
-    <t>x(1)</t>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>Voluntário reprovado</t>
   </si>
   <si>
     <t>Interagir
 com as Pastas</t>
   </si>
   <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>Voluntário reprovado</t>
-  </si>
-  <si>
-    <t>Usuário escolhe uma Pasta</t>
-  </si>
-  <si>
     <t>Criação
 das Pastas</t>
   </si>
@@ -96,25 +93,16 @@
     <t>Voluntários solicita criação de Pasta</t>
   </si>
   <si>
-    <t>Usuário segue Pasta</t>
-  </si>
-  <si>
-    <t>x(6)</t>
-  </si>
-  <si>
     <t>Administração avalia Pasta</t>
   </si>
   <si>
     <t>x(4)</t>
   </si>
   <si>
+    <t>Usuário escolhe uma Pasta</t>
+  </si>
+  <si>
     <t>6-feira:Administração homologa Pastas</t>
-  </si>
-  <si>
-    <t>Usuário envia mensagem</t>
-  </si>
-  <si>
-    <t>x(7)</t>
   </si>
   <si>
     <t>Interação
@@ -124,22 +112,34 @@
     <t>Voluntários segue Pasta</t>
   </si>
   <si>
+    <t>x(6)</t>
+  </si>
+  <si>
+    <t>Usuário segue Pasta</t>
+  </si>
+  <si>
+    <t>Usuário envia mensagem</t>
+  </si>
+  <si>
+    <t>x(7)</t>
+  </si>
+  <si>
+    <t>Voluntários publica informe</t>
+  </si>
+  <si>
     <t>Usuário cria Pasta</t>
-  </si>
-  <si>
-    <t>Voluntários publica informe</t>
   </si>
   <si>
     <t>Aprovação
 das Pastas</t>
   </si>
   <si>
+    <t>Administração publica análises técnicas</t>
+  </si>
+  <si>
     <t>Administrador avalia Pasta</t>
   </si>
   <si>
-    <t>Administração publica análises técnicas</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -149,16 +149,16 @@
     <t>Gerar Relatório</t>
   </si>
   <si>
+    <t>Administrador envia comentário na Pasta</t>
+  </si>
+  <si>
     <t>6-feira:Administração reporta relátorio</t>
   </si>
   <si>
-    <t>Administrador envia comentário na Pasta</t>
+    <t>Sistema homologa Pastas</t>
   </si>
   <si>
     <t>Administração finaliza pasta</t>
-  </si>
-  <si>
-    <t>Sistema homologa Pastas</t>
   </si>
   <si>
     <t>Gerir o negócio</t>
@@ -232,14 +232,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFEFEFEF"/>
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF8E7CC3"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
@@ -274,14 +274,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
+        <fgColor rgb="FFE06666"/>
+        <bgColor rgb="FFE06666"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -448,23 +448,23 @@
     <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="2" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -496,29 +496,28 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="11" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -529,13 +528,14 @@
     <xf borderId="6" fillId="12" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -554,19 +554,19 @@
     <xf borderId="13" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
+    </xf>
     <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="14" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="10" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
     <xf borderId="12" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -869,13 +869,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>1.0</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -913,16 +913,16 @@
     <row r="3">
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
-      <c r="C3" s="10">
+      <c r="C3" s="11">
         <v>2.0</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -950,21 +950,21 @@
     </row>
     <row r="4">
       <c r="A4" s="24"/>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
       <c r="I4" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J4" s="19"/>
       <c r="K4" s="21"/>
@@ -989,20 +989,20 @@
       <c r="AK4" s="22"/>
     </row>
     <row r="5">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="17"/>
@@ -1013,29 +1013,29 @@
     <row r="6">
       <c r="A6" s="24"/>
       <c r="B6" s="25"/>
-      <c r="C6" s="10">
+      <c r="C6" s="11">
         <v>5.0</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>28</v>
+      <c r="D6" s="26" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="19"/>
     </row>
     <row r="7">
-      <c r="A7" s="35"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="25"/>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>6.0</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>30</v>
+      <c r="D7" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -1047,20 +1047,20 @@
       <c r="J7" s="19"/>
     </row>
     <row r="8">
-      <c r="A8" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>7.0</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>34</v>
+      <c r="D8" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="17"/>
@@ -1091,14 +1091,14 @@
     <row r="9">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>8.0</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>36</v>
+      <c r="D9" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="17"/>
@@ -1128,31 +1128,31 @@
     </row>
     <row r="10">
       <c r="A10" s="24"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="36">
+      <c r="B10" s="40"/>
+      <c r="C10" s="35">
         <v>9.0</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>39</v>
+      <c r="D10" s="26" t="s">
+        <v>38</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
       <c r="G10" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="19"/>
     </row>
     <row r="11">
-      <c r="A11" s="35"/>
-      <c r="B11" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="A11" s="34"/>
+      <c r="B11" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="35">
         <v>10.0</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>41</v>
       </c>
       <c r="E11" s="15"/>
@@ -1160,7 +1160,7 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -1168,14 +1168,14 @@
       <c r="A12" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="35">
         <v>11.0</v>
       </c>
-      <c r="D12" s="37" t="s">
-        <v>43</v>
+      <c r="D12" s="36" t="s">
+        <v>44</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -1187,22 +1187,22 @@
       <c r="J12" s="19"/>
     </row>
     <row r="13">
-      <c r="A13" s="35"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="44">
         <v>12.0</v>
       </c>
       <c r="D13" s="45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" s="46"/>
       <c r="F13" s="46"/>
       <c r="G13" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="49"/>
+        <v>31</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
@@ -1298,13 +1298,13 @@
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="11">
         <v>1.0</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="15"/>
@@ -1340,17 +1340,17 @@
       <c r="AJ2" s="23"/>
     </row>
     <row r="3">
-      <c r="A3" s="26"/>
-      <c r="C3" s="10">
+      <c r="A3" s="27"/>
+      <c r="C3" s="11">
         <v>2.0</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>17</v>
+      <c r="D3" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
@@ -1377,17 +1377,17 @@
       <c r="AK3" s="23"/>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="11">
         <v>3.0</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>23</v>
+      <c r="D4" s="33" t="s">
+        <v>27</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
@@ -1419,17 +1419,17 @@
       <c r="AK4" s="23"/>
     </row>
     <row r="5">
-      <c r="A5" s="34"/>
-      <c r="C5" s="10">
+      <c r="A5" s="38"/>
+      <c r="C5" s="11">
         <v>4.0</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>26</v>
+      <c r="D5" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -1456,17 +1456,17 @@
       <c r="AK5" s="23"/>
     </row>
     <row r="6">
-      <c r="A6" s="34"/>
-      <c r="C6" s="10">
+      <c r="A6" s="38"/>
+      <c r="C6" s="11">
         <v>5.0</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>31</v>
+      <c r="D6" s="33" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1493,12 +1493,12 @@
       <c r="AK6" s="23"/>
     </row>
     <row r="7">
-      <c r="A7" s="26"/>
-      <c r="C7" s="10">
+      <c r="A7" s="27"/>
+      <c r="C7" s="11">
         <v>6.0</v>
       </c>
-      <c r="D7" s="32" t="s">
-        <v>35</v>
+      <c r="D7" s="33" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
@@ -1530,15 +1530,15 @@
       <c r="AK7" s="23"/>
     </row>
     <row r="8">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="10">
+      <c r="B8" s="32"/>
+      <c r="C8" s="11">
         <v>7.0</v>
       </c>
-      <c r="D8" s="32" t="s">
-        <v>38</v>
+      <c r="D8" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
@@ -1572,12 +1572,12 @@
       <c r="AK8" s="23"/>
     </row>
     <row r="9">
-      <c r="A9" s="34"/>
-      <c r="C9" s="10">
+      <c r="A9" s="38"/>
+      <c r="C9" s="11">
         <v>8.0</v>
       </c>
-      <c r="D9" s="32" t="s">
-        <v>44</v>
+      <c r="D9" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
@@ -1607,12 +1607,12 @@
       <c r="AK9" s="23"/>
     </row>
     <row r="10">
-      <c r="A10" s="26"/>
-      <c r="C10" s="10">
+      <c r="A10" s="27"/>
+      <c r="C10" s="11">
         <v>9.0</v>
       </c>
-      <c r="D10" s="32" t="s">
-        <v>46</v>
+      <c r="D10" s="33" t="s">
+        <v>45</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
@@ -1644,16 +1644,16 @@
       <c r="AK10" s="23"/>
     </row>
     <row r="11">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="11">
         <v>10.0</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="33" t="s">
         <v>48</v>
       </c>
       <c r="E11" s="15"/>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="12">
       <c r="A12" s="25"/>
-      <c r="C12" s="10">
+      <c r="C12" s="11">
         <v>11.0</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="15"/>
@@ -1722,10 +1722,10 @@
     </row>
     <row r="13">
       <c r="A13" s="25"/>
-      <c r="C13" s="10">
+      <c r="C13" s="11">
         <v>12.0</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="33" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="15"/>
@@ -1757,10 +1757,10 @@
     </row>
     <row r="14">
       <c r="A14" s="25"/>
-      <c r="C14" s="10">
+      <c r="C14" s="11">
         <v>13.0</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="33" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="15"/>
@@ -1791,10 +1791,10 @@
       <c r="AK14" s="23"/>
     </row>
     <row r="15">
-      <c r="A15" s="50"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="27"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="17"/>
@@ -1829,9 +1829,9 @@
       <c r="D16" s="45"/>
       <c r="E16" s="46"/>
       <c r="F16" s="46"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
       <c r="J16" s="54"/>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
@@ -1855,7 +1855,7 @@
       <c r="AK16" s="23"/>
     </row>
     <row r="17">
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
-  <si>
-    <t>;</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>Externo</t>
   </si>
@@ -49,34 +46,34 @@
     <t>Extemporâneo</t>
   </si>
   <si>
-    <t>Alocar morador para participar como voluntário</t>
+    <t>Alocar Munícipe para participar como Voluntário</t>
   </si>
   <si>
     <t>FB</t>
   </si>
   <si>
-    <t>Munícipe realiza solicitação de participação</t>
+    <t>Munícipe realiza solicitação para voluntariado</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>Munícipe preenche ficha de cadastro</t>
+    <t>Munícipe envia ficha de voluntário preenchida</t>
   </si>
   <si>
     <t>x(1)</t>
   </si>
   <si>
-    <t>Administrador analisa ficha de cadastro</t>
+    <t>Administrador analisa ficha solicitação do voluntário</t>
   </si>
   <si>
     <t>x(2)</t>
   </si>
   <si>
-    <t>Receber novo voluntário</t>
-  </si>
-  <si>
-    <t>Administrador recebe novo voluntário</t>
+    <t>Receber novo Voluntário</t>
+  </si>
+  <si>
+    <t>Administrativo envia novo voluntário</t>
   </si>
   <si>
     <t>x(3)</t>
@@ -85,16 +82,16 @@
     <t>Solicitar criação de Pasta</t>
   </si>
   <si>
-    <t>Munícipe solicita pasta para estudo</t>
-  </si>
-  <si>
-    <t>Munícipe preenche ficha de pasta</t>
+    <t>Munícipe realiza solicitação para estudo da Pasta</t>
+  </si>
+  <si>
+    <t>Munícipe envia ficha de Pasta preenchida</t>
   </si>
   <si>
     <t>x(5)</t>
   </si>
   <si>
-    <t>Operador solicita a análise de ficha de pasta</t>
+    <t>Voluntário solicita a análise de ficha de Pasta</t>
   </si>
   <si>
     <t>x(6)</t>
@@ -103,64 +100,79 @@
     <t>Analisar criação de Pasta</t>
   </si>
   <si>
-    <t>Administrador analisa solicitação de pasta</t>
-  </si>
-  <si>
-    <t>x(7)</t>
-  </si>
-  <si>
-    <t>Administrador cria pasta analisada</t>
+    <t>Operacional envia solicitação de Pasta</t>
+  </si>
+  <si>
+    <t>Administrador cria Pasta analisada</t>
   </si>
   <si>
     <t>x(8)</t>
   </si>
   <si>
-    <t>Criar Pasta Solicitada</t>
-  </si>
-  <si>
-    <t>Prefeito requisita pasta a ser criada</t>
-  </si>
-  <si>
-    <t>Prefeito envia ficha da pasta preenchida</t>
+    <t>Realizar análise técnica</t>
+  </si>
+  <si>
+    <t>Munícipe envia análise técnica</t>
+  </si>
+  <si>
+    <t>Administrador disponibiliza análise técnica</t>
   </si>
   <si>
     <t>x(10)</t>
   </si>
   <si>
+    <t>Disponibilizar parecer oficial</t>
+  </si>
+  <si>
+    <t>Prefeitura envia parecer oficial</t>
+  </si>
+  <si>
+    <t>Administrador encerra Pasta</t>
+  </si>
+  <si>
+    <t>x(12)</t>
+  </si>
+  <si>
+    <t>Compartilhar estudo na Pasta</t>
+  </si>
+  <si>
+    <t>Munícipe envia estudo</t>
+  </si>
+  <si>
+    <t>Voluntário análisa estudo</t>
+  </si>
+  <si>
+    <t>x(14)</t>
+  </si>
+  <si>
+    <t>Criar Pasta solicitada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefeitura realiza requisição de Pasta </t>
+  </si>
+  <si>
+    <t>Prefeitura envia ficha de Pasta preenchida</t>
+  </si>
+  <si>
+    <t>x(16)</t>
+  </si>
+  <si>
     <t>Administrador cria pasta requerida</t>
   </si>
   <si>
-    <t>x(11)</t>
+    <t>x(18)</t>
   </si>
   <si>
     <t>Gerar relatório</t>
   </si>
   <si>
-    <t>Prefeito solicita relatório</t>
+    <t>Prefeitura realiza solicitação de relatório</t>
   </si>
   <si>
     <t>Administrador envia relatório</t>
   </si>
   <si>
-    <t>x(13)</t>
-  </si>
-  <si>
-    <t>Ok Takai</t>
-  </si>
-  <si>
-    <t>FA</t>
-  </si>
-  <si>
-    <t>Para fluxo alternativo: adicionar quando a pasta é negada.</t>
-  </si>
-  <si>
-    <t>voluntario não é aceito (?)</t>
-  </si>
-  <si>
-    <t>PERGUNTAR SE PRECISA TER FLUXO ALTERNATIVO</t>
-  </si>
-  <si>
-    <t>VAMOS PERDER PONTOS SE NÃO TIVER?</t>
+    <t>x(19)</t>
   </si>
 </sst>
 </file>
@@ -179,10 +191,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
@@ -203,6 +211,10 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -213,8 +225,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -225,12 +237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
-        <bgColor rgb="FF00FF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
@@ -255,8 +261,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC4125"/>
-        <bgColor rgb="FFCC4125"/>
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
       </patternFill>
     </fill>
     <fill>
@@ -273,8 +279,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFC27BA0"/>
+        <bgColor rgb="FFC27BA0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
     <fill>
@@ -285,14 +303,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -432,142 +444,128 @@
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="10" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="11" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="11" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -796,15 +794,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="4"/>
       <c r="I1" s="3"/>
@@ -812,510 +808,603 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
     </row>
     <row r="4">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="26"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="5">
         <v>3.0</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24" t="s">
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="18"/>
+      <c r="AG5" s="18"/>
+      <c r="AH5" s="18"/>
+      <c r="AI5" s="18"/>
+      <c r="AJ5" s="18"/>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="19"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="28" t="s">
+      <c r="B6" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="26">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="30">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="19"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>13</v>
+      <c r="B7" s="25" t="s">
+        <v>12</v>
       </c>
       <c r="C7" s="5">
         <v>5.0</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="30"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="34"/>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="30">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="34"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="34"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="30"/>
+      <c r="AK8" s="30"/>
+      <c r="AL8" s="30"/>
     </row>
     <row r="9">
-      <c r="A9" s="26"/>
-      <c r="B9" s="35"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="5">
         <v>7.0</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10">
       <c r="A10" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="26">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="30">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11">
-      <c r="A11" s="26"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="5">
         <v>9.0</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16" t="s">
+      <c r="B12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="26">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="30">
-        <v>10.0</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="25"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="5">
         <v>11.0</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="B14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="26">
+        <v>12.0</v>
+      </c>
+      <c r="D14" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="26"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="30">
-        <v>12.0</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15">
-      <c r="A15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>13</v>
-      </c>
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="5">
         <v>13.0</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="26">
+        <v>14.0</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="25"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="26"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="5">
-        <v>14.0</v>
-      </c>
-      <c r="D16" s="33" t="s">
+      <c r="E16" s="13"/>
+      <c r="F16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="22"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42" t="s">
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="34"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="34"/>
-      <c r="AK16" s="34"/>
-      <c r="AL16" s="34"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="44"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="40" t="s">
         <v>44</v>
       </c>
+      <c r="B18" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="26">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19">
-      <c r="C19" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="47" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>46</v>
       </c>
+      <c r="E19" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20">
-      <c r="D20" s="47" t="s">
-        <v>47</v>
-      </c>
+      <c r="A20" s="22"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="26">
+        <v>18.0</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="33"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21">
-      <c r="D21" s="48" t="s">
-        <v>48</v>
-      </c>
+      <c r="A21" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22">
-      <c r="D22" s="46" t="s">
-        <v>49</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="30"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="20">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:A6">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/17. Análise dos Eventos para cada Cenário.xlsx
+++ b/17. Análise dos Eventos para cada Cenário.xlsx
@@ -64,7 +64,7 @@
     <t>x(1)</t>
   </si>
   <si>
-    <t>Administrador analisa ficha solicitação do voluntário</t>
+    <t>Administrador analisa ficha de solicitação do voluntário</t>
   </si>
   <si>
     <t>x(2)</t>
@@ -191,6 +191,10 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
       <color rgb="FF000000"/>
@@ -211,10 +215,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -308,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -363,7 +363,28 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -371,59 +392,31 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF666666"/>
       </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -432,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -451,114 +444,84 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="11" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="90" vertical="center"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="11" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="11" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="15" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="13" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,537 +813,537 @@
         <v>13</v>
       </c>
       <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
     </row>
     <row r="4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="18"/>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
     </row>
     <row r="5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="5">
         <v>3.0</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="18"/>
-      <c r="AG5" s="18"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="18"/>
-      <c r="AK5" s="18"/>
-      <c r="AL5" s="18"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>4.0</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="18"/>
-      <c r="AL6" s="18"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
     </row>
     <row r="7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="5">
         <v>5.0</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="29"/>
+      <c r="AB7" s="29"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="29"/>
+      <c r="AH7" s="29"/>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="29"/>
+      <c r="AL7" s="29"/>
     </row>
     <row r="8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="26">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="25">
         <v>6.0</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="30"/>
-      <c r="AL8" s="30"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="29"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29"/>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="29"/>
+      <c r="AL8" s="29"/>
     </row>
     <row r="9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="5">
         <v>7.0</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="34" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="35"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>8.0</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="5">
         <v>9.0</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="34" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>10.0</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13">
-      <c r="A13" s="22"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="5">
         <v>11.0</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="34" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>12.0</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E14" s="13"/>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="5">
         <v>13.0</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="34" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="25">
         <v>14.0</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17">
-      <c r="A17" s="22"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="5">
         <v>15.0</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="34" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>16.0</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="5">
         <v>17.0</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20">
-      <c r="A20" s="22"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="26">
+      <c r="A20" s="21"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="25">
         <v>18.0</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="33"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="34" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="5">
         <v>19.0</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="22"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="5">
         <v>20.0</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="44" t="s">
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+      <c r="AI22" s="29"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="29"/>
+      <c r="AL22" s="29"/>
     </row>
     <row r="23">
-      <c r="A23" s="47"/>
+      <c r="A23" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
